--- a/Assignment Instructions and framework/Gantt chart.xlsx
+++ b/Assignment Instructions and framework/Gantt chart.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25616"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfd74915eb265310/Teaching/1810ICT/Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD2D0859-CB59-4A9C-8932-A7E14286CF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9516"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -26,8 +27,18 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Planner'!$3:$4</definedName>
     <definedName name="TitleRegion..BO60">'Project Planner'!$B$3:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -38,88 +49,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
-    <t>PERIODS</t>
-  </si>
-  <si>
-    <t>ACTIVITY</t>
-  </si>
-  <si>
-    <t>Activity 01</t>
-  </si>
-  <si>
-    <t>Activity 02</t>
-  </si>
-  <si>
-    <t>Activity 03</t>
-  </si>
-  <si>
-    <t>Activity 04</t>
-  </si>
-  <si>
-    <t>Activity 05</t>
-  </si>
-  <si>
-    <t>Activity 06</t>
-  </si>
-  <si>
-    <t>Activity 07</t>
-  </si>
-  <si>
-    <t>Activity 08</t>
-  </si>
-  <si>
-    <t>Activity 09</t>
-  </si>
-  <si>
-    <t>Activity 10</t>
-  </si>
-  <si>
-    <t>Activity 11</t>
-  </si>
-  <si>
-    <t>Activity 12</t>
-  </si>
-  <si>
-    <t>Activity 13</t>
-  </si>
-  <si>
-    <t>Activity 14</t>
-  </si>
-  <si>
-    <t>Activity 15</t>
-  </si>
-  <si>
-    <t>Activity 16</t>
-  </si>
-  <si>
-    <t>Activity 17</t>
-  </si>
-  <si>
-    <t>Activity 18</t>
-  </si>
-  <si>
-    <t>Activity 19</t>
-  </si>
-  <si>
-    <t>Activity 20</t>
-  </si>
-  <si>
-    <t>Activity 21</t>
-  </si>
-  <si>
-    <t>Activity 22</t>
-  </si>
-  <si>
-    <t>Activity 23</t>
-  </si>
-  <si>
-    <t>Activity 24</t>
-  </si>
-  <si>
-    <t>Activity 25</t>
-  </si>
-  <si>
-    <t>Activity 26</t>
+    <t>Project Title</t>
+  </si>
+  <si>
+    <t>Select a period to highlight at right.  A legend describing the charting follows.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Period Highlight:</t>
+  </si>
+  <si>
+    <t>Plan Duration</t>
+  </si>
+  <si>
+    <t>Actual Start</t>
   </si>
   <si>
     <r>
@@ -203,7 +145,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Period Highlight:</t>
+    <t>ACTIVITY</t>
   </si>
   <si>
     <t>PLAN START</t>
@@ -221,13 +163,85 @@
     <t>PERCENT COMPLETE</t>
   </si>
   <si>
-    <t>Actual Start</t>
-  </si>
-  <si>
-    <t>Plan Duration</t>
-  </si>
-  <si>
-    <t>Select a period to highlight at right.  A legend describing the charting follows.</t>
+    <t>PERIODS</t>
+  </si>
+  <si>
+    <t>Stage 1 - Planning</t>
+  </si>
+  <si>
+    <t>1.1 Evaluate current systems</t>
+  </si>
+  <si>
+    <t>1.2 Develop a project overview</t>
+  </si>
+  <si>
+    <t>1.3 Develop a work-breakdown structure</t>
+  </si>
+  <si>
+    <t>1.4 Analyse the dataset</t>
+  </si>
+  <si>
+    <t>1.5 Develop a gantt chart</t>
+  </si>
+  <si>
+    <t>1.6 Define the project scope</t>
+  </si>
+  <si>
+    <t>Stage 2 - Design</t>
+  </si>
+  <si>
+    <t>2.1 Develop a system vision statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2 Define project requirements </t>
+  </si>
+  <si>
+    <t>2.3 Develop software use cases</t>
+  </si>
+  <si>
+    <t>2.4 Define system components</t>
+  </si>
+  <si>
+    <t>2.5 Define related software design</t>
+  </si>
+  <si>
+    <t>2.6 Define early user interface design</t>
+  </si>
+  <si>
+    <t>2.7 Develop a wireframe</t>
+  </si>
+  <si>
+    <t>Stage 3 - Implementation</t>
+  </si>
+  <si>
+    <t>Activity 17</t>
+  </si>
+  <si>
+    <t>Activity 18</t>
+  </si>
+  <si>
+    <t>Activity 19</t>
+  </si>
+  <si>
+    <t>Activity 20</t>
+  </si>
+  <si>
+    <t>Activity 21</t>
+  </si>
+  <si>
+    <t>Activity 22</t>
+  </si>
+  <si>
+    <t>Activity 23</t>
+  </si>
+  <si>
+    <t>Activity 24</t>
+  </si>
+  <si>
+    <t>Activity 25</t>
+  </si>
+  <si>
+    <t>Activity 26</t>
   </si>
   <si>
     <t>Activity 27</t>
@@ -255,16 +269,13 @@
   </si>
   <si>
     <t>Activity 35</t>
-  </si>
-  <si>
-    <t>Project Title</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -363,6 +374,11 @@
       <name val="Corbel"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF404040"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="8">
@@ -551,7 +567,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -582,7 +598,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -618,43 +634,28 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -666,148 +667,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="% complete" xfId="16"/>
-    <cellStyle name="% complete (beyond plan) legend" xfId="18"/>
-    <cellStyle name="Activity" xfId="2"/>
-    <cellStyle name="Actual (beyond plan) legend" xfId="17"/>
-    <cellStyle name="Actual legend" xfId="15"/>
+    <cellStyle name="% complete" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="% complete (beyond plan) legend" xfId="18" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Actual (beyond plan) legend" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Actual legend" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Label" xfId="5"/>
+    <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Percent Complete" xfId="6"/>
-    <cellStyle name="Period Headers" xfId="3"/>
-    <cellStyle name="Period Highlight Control" xfId="7"/>
-    <cellStyle name="Period Value" xfId="13"/>
-    <cellStyle name="Plan legend" xfId="14"/>
-    <cellStyle name="Project Headers" xfId="4"/>
+    <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Period Value" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Plan legend" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -824,15 +721,6 @@
         <bottom style="thin">
           <color theme="7"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
         <vertical/>
         <horizontal/>
       </border>
@@ -1189,33 +1077,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:BO39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="27" width="2.77734375" style="1"/>
-    <col min="42" max="42" width="2.77734375" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="37.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="27" width="2.75" style="1"/>
+    <col min="42" max="42" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1">
       <c r="B1" s="14" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -1223,85 +1111,85 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+    <row r="2" spans="2:67" ht="21" customHeight="1">
+      <c r="B2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="5" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="H2" s="15">
         <v>1</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
+      <c r="K2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="28"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="32"/>
+      <c r="Q2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="18"/>
-      <c r="V2" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="34"/>
+      <c r="V2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="32"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="37"/>
+      <c r="AA2" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="32"/>
       <c r="AH2" s="20"/>
-      <c r="AI2" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="39"/>
-    </row>
-    <row r="3" spans="2:67" s="12" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>36</v>
+      <c r="AI2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+    </row>
+    <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="B3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>13</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
@@ -1323,13 +1211,13 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
     </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+    <row r="4" spans="2:67" ht="15.75" customHeight="1">
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1511,9 +1399,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:67" ht="30" customHeight="1">
       <c r="B5" s="6" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1527,9 +1415,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="6" t="s">
-        <v>3</v>
+    <row r="6" spans="2:67" ht="30" customHeight="1">
+      <c r="B6" s="24" t="s">
+        <v>16</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1539,9 +1427,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="6" t="s">
-        <v>4</v>
+    <row r="7" spans="2:67" ht="30" customHeight="1">
+      <c r="B7" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1551,9 +1439,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="6" t="s">
-        <v>5</v>
+    <row r="8" spans="2:67" ht="30" customHeight="1">
+      <c r="B8" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1563,9 +1451,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="6" t="s">
-        <v>6</v>
+    <row r="9" spans="2:67" ht="30" customHeight="1">
+      <c r="B9" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1575,9 +1463,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="6" t="s">
-        <v>7</v>
+    <row r="10" spans="2:67" ht="30" customHeight="1">
+      <c r="B10" s="24" t="s">
+        <v>20</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1587,9 +1475,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="6" t="s">
-        <v>8</v>
+    <row r="11" spans="2:67" ht="30" customHeight="1">
+      <c r="B11" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1599,9 +1487,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:67" ht="30" customHeight="1">
       <c r="B12" s="6" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1611,9 +1499,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="6" t="s">
-        <v>10</v>
+    <row r="13" spans="2:67" ht="30" customHeight="1">
+      <c r="B13" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1623,9 +1511,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="6" t="s">
-        <v>11</v>
+    <row r="14" spans="2:67" ht="30" customHeight="1">
+      <c r="B14" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1635,9 +1523,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="6" t="s">
-        <v>12</v>
+    <row r="15" spans="2:67" ht="30" customHeight="1">
+      <c r="B15" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="7"/>
@@ -1647,9 +1535,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="6" t="s">
-        <v>13</v>
+    <row r="16" spans="2:67" ht="30" customHeight="1">
+      <c r="B16" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1659,9 +1547,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="6" t="s">
-        <v>14</v>
+    <row r="17" spans="2:7" ht="30" customHeight="1">
+      <c r="B17" s="24" t="s">
+        <v>27</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1671,9 +1559,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="6" t="s">
-        <v>15</v>
+    <row r="18" spans="2:7" ht="30" customHeight="1">
+      <c r="B18" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1683,9 +1571,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="6" t="s">
-        <v>16</v>
+    <row r="19" spans="2:7" ht="30" customHeight="1">
+      <c r="B19" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1695,9 +1583,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" ht="30" customHeight="1">
       <c r="B20" s="6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1707,9 +1595,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" ht="30" customHeight="1">
       <c r="B21" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1719,9 +1607,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" ht="30" customHeight="1">
       <c r="B22" s="6" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1731,9 +1619,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" ht="30" customHeight="1">
       <c r="B23" s="6" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1743,9 +1631,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" ht="30" customHeight="1">
       <c r="B24" s="6" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1755,9 +1643,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" ht="30" customHeight="1">
       <c r="B25" s="6" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1767,9 +1655,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" ht="30" customHeight="1">
       <c r="B26" s="6" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1779,9 +1667,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" ht="30" customHeight="1">
       <c r="B27" s="6" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1791,9 +1679,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" ht="30" customHeight="1">
       <c r="B28" s="6" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1803,9 +1691,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7" ht="30" customHeight="1">
       <c r="B29" s="6" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1815,9 +1703,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" ht="30" customHeight="1">
       <c r="B30" s="6" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1827,9 +1715,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:7" ht="30" customHeight="1">
       <c r="B31" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1839,9 +1727,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" ht="30" customHeight="1">
       <c r="B32" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1851,9 +1739,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" ht="30" customHeight="1">
       <c r="B33" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1863,9 +1751,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" ht="30" customHeight="1">
       <c r="B34" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1875,9 +1763,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" ht="30" customHeight="1">
       <c r="B35" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1887,9 +1775,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" ht="30" customHeight="1">
       <c r="B36" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1899,9 +1787,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" ht="30" customHeight="1">
       <c r="B37" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1911,9 +1799,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" ht="30" customHeight="1">
       <c r="B38" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1923,9 +1811,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" ht="30" customHeight="1">
       <c r="B39" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1937,68 +1825,68 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AA2:AG2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AA2:AG2"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:BO39">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="2" priority="11">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="1" priority="12">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/Assignment Instructions and framework/Gantt chart.xlsx
+++ b/Assignment Instructions and framework/Gantt chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25616"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25623"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfd74915eb265310/Teaching/1810ICT/Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD2D0859-CB59-4A9C-8932-A7E14286CF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D09D6DF-7B19-43F0-BE22-D9FE53B25D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Project Title</t>
   </si>
@@ -214,61 +214,16 @@
     <t>Stage 3 - Implementation</t>
   </si>
   <si>
-    <t>Activity 17</t>
-  </si>
-  <si>
-    <t>Activity 18</t>
-  </si>
-  <si>
-    <t>Activity 19</t>
-  </si>
-  <si>
-    <t>Activity 20</t>
-  </si>
-  <si>
-    <t>Activity 21</t>
-  </si>
-  <si>
-    <t>Activity 22</t>
-  </si>
-  <si>
-    <t>Activity 23</t>
-  </si>
-  <si>
-    <t>Activity 24</t>
-  </si>
-  <si>
-    <t>Activity 25</t>
-  </si>
-  <si>
-    <t>Activity 26</t>
-  </si>
-  <si>
-    <t>Activity 27</t>
-  </si>
-  <si>
-    <t>Activity 28</t>
-  </si>
-  <si>
-    <t>Activity 29</t>
-  </si>
-  <si>
-    <t>Activity 30</t>
-  </si>
-  <si>
-    <t>Activity 31</t>
-  </si>
-  <si>
-    <t>Activity 32</t>
-  </si>
-  <si>
-    <t>Activity 33</t>
-  </si>
-  <si>
-    <t>Activity 34</t>
-  </si>
-  <si>
-    <t>Activity 35</t>
+    <t>Develop a testing plan</t>
+  </si>
+  <si>
+    <t>Develop a testing report</t>
+  </si>
+  <si>
+    <t>Create a user manual</t>
+  </si>
+  <si>
+    <t>Create a finalized data analysis report</t>
   </si>
 </sst>
 </file>
@@ -704,7 +659,572 @@
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="49">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1084,14 +1604,14 @@
   </sheetPr>
   <dimension ref="B1:BO39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="37.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.75" style="1" bestFit="1" customWidth="1"/>
@@ -1407,465 +1927,705 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8">
         <v>0</v>
       </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8">
         <v>0</v>
       </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1">
       <c r="B7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8">
         <v>0</v>
       </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1">
       <c r="B8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>4</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="8">
         <v>0</v>
       </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1">
       <c r="B9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>9</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="8">
         <v>0</v>
       </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1">
       <c r="B10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>9</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="8">
         <v>0</v>
       </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="V10"/>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1">
       <c r="B11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8">
         <v>0</v>
       </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="V11"/>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1">
       <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>9</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="8">
         <v>0</v>
       </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1">
       <c r="B13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="8">
         <v>0</v>
       </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1">
       <c r="B14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="7">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="8">
         <v>0</v>
       </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1">
       <c r="B15" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
+      <c r="C15" s="9">
+        <v>4</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="8">
         <v>0</v>
       </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1">
       <c r="B16" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="C16" s="7">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1">
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+    </row>
+    <row r="17" spans="2:29" ht="30" customHeight="1">
       <c r="B17" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="C17" s="7">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1">
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="2:29" ht="30" customHeight="1">
       <c r="B18" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="C18" s="7">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1">
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+    </row>
+    <row r="19" spans="2:29" ht="30" customHeight="1">
       <c r="B19" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="C19" s="7">
+        <v>6</v>
+      </c>
+      <c r="D19" s="7">
+        <v>4</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1">
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+    </row>
+    <row r="20" spans="2:29" ht="30" customHeight="1">
       <c r="B20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="C20" s="7">
+        <v>10</v>
+      </c>
+      <c r="D20" s="7">
+        <v>13</v>
+      </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1">
-      <c r="B21" s="6" t="s">
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+    </row>
+    <row r="21" spans="2:29" ht="30" customHeight="1">
+      <c r="B21" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="C21" s="7">
+        <v>10</v>
+      </c>
+      <c r="D21" s="7">
+        <v>4</v>
+      </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1">
-      <c r="B22" s="6" t="s">
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+    </row>
+    <row r="22" spans="2:29" ht="30" customHeight="1">
+      <c r="B22" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="C22" s="7">
+        <v>14</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2</v>
+      </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1">
-      <c r="B23" s="6" t="s">
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+    </row>
+    <row r="23" spans="2:29" ht="30" customHeight="1">
+      <c r="B23" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="C23" s="7">
+        <v>14</v>
+      </c>
+      <c r="D23" s="7">
+        <v>5</v>
+      </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1">
-      <c r="B24" s="6" t="s">
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+    </row>
+    <row r="24" spans="2:29" ht="30" customHeight="1">
+      <c r="B24" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="C24" s="7">
+        <v>18</v>
+      </c>
+      <c r="D24" s="7">
+        <v>5</v>
+      </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1">
-      <c r="B25" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+    </row>
+    <row r="25" spans="2:29" ht="30" customHeight="1">
+      <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1">
-      <c r="B26" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="2:29" ht="30" customHeight="1">
+      <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1">
-      <c r="B27" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="2:29" ht="30" customHeight="1">
+      <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1">
-      <c r="B28" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="2:29" ht="30" customHeight="1">
+      <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1">
-      <c r="B29" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="2:29" ht="30" customHeight="1">
+      <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1">
-      <c r="B30" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="2:29" ht="30" customHeight="1">
+      <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="30" customHeight="1">
-      <c r="B31" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="2:29" ht="30" customHeight="1">
+      <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="30" customHeight="1">
-      <c r="B32" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="2:29" ht="30" customHeight="1">
+      <c r="B32" s="6"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="8">
-        <v>0</v>
-      </c>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1">
-      <c r="B33" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="8">
-        <v>0</v>
-      </c>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="2:7" ht="30" customHeight="1">
-      <c r="B34" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="B34" s="6"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="8">
-        <v>0</v>
-      </c>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="2:7" ht="30" customHeight="1">
-      <c r="B35" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="B35" s="6"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="8">
-        <v>0</v>
-      </c>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="2:7" ht="30" customHeight="1">
-      <c r="B36" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="B36" s="6"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="8">
-        <v>0</v>
-      </c>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="2:7" ht="30" customHeight="1">
-      <c r="B37" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="B37" s="6"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="8">
-        <v>0</v>
-      </c>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" spans="2:7" ht="30" customHeight="1">
-      <c r="B38" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="B38" s="6"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="8">
-        <v>0</v>
-      </c>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" spans="2:7" ht="30" customHeight="1">
-      <c r="B39" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="B39" s="6"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="8">
-        <v>0</v>
-      </c>
+      <c r="G39" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AA2:AG2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BO39">
-    <cfRule type="expression" dxfId="8" priority="1">
+  <conditionalFormatting sqref="H25:BO39 K6:BO7 Q5:BO5 O8:BO8 H11 L11:BO11 Q12:BO12 J13:BO13 H14:J15 M14:BO15 H16:K17 N16:BO17 O18:BO18 H18:L19 Q19:BO19 Q9:BO10 AD20:BO20 H20:P21 U21:BO21 W22:BO22 H22:T23 H24:X24 Z23:BO23 AD24:BO24">
+    <cfRule type="expression" dxfId="48" priority="121">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="47" priority="123">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="46" priority="124">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="45" priority="125">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="44" priority="126">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="43" priority="127">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="42" priority="131">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="12">
+    <cfRule type="expression" dxfId="41" priority="132">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BO4">
+    <cfRule type="expression" dxfId="40" priority="128">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="expression" dxfId="39" priority="113">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="114">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="115">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="116">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="117">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="118">
+      <formula>J$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="119">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="120">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="expression" dxfId="31" priority="105">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="106">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="107">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="108">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="109">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="110">
+      <formula>J$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="111">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="112">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8">
+    <cfRule type="expression" dxfId="23" priority="17">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="18">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="19">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="22">
+      <formula>N$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="23">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="24">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>M$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="15">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="16">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>L$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="8">
-      <formula>H$4=period_selected</formula>
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
@@ -1874,7 +2634,7 @@
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2 H5:P5 H6:I7 I11:K11 H8:K10 H12:P12 H13:I13 K14:L15 L16:M17 M18:N18 M19:P19 L9:P10 Q20:AC20 Q21:T21 U22:V22 U23:Y23 Y24:AC24" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>

--- a/Assignment Instructions and framework/Gantt chart.xlsx
+++ b/Assignment Instructions and framework/Gantt chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfd74915eb265310/Teaching/1810ICT/Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D09D6DF-7B19-43F0-BE22-D9FE53B25D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4917E7AA-F1A9-479D-A526-FF3E49E2D34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,9 +47,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Project Title</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+  <si>
+    <t>NSW Traffic Penalty Data Tool - Gantt Chart</t>
   </si>
   <si>
     <t>Select a period to highlight at right.  A legend describing the charting follows.</t>
@@ -169,22 +169,31 @@
     <t>Stage 1 - Planning</t>
   </si>
   <si>
-    <t>1.1 Evaluate current systems</t>
-  </si>
-  <si>
-    <t>1.2 Develop a project overview</t>
-  </si>
-  <si>
-    <t>1.3 Develop a work-breakdown structure</t>
-  </si>
-  <si>
-    <t>1.4 Analyse the dataset</t>
-  </si>
-  <si>
-    <t>1.5 Develop a gantt chart</t>
-  </si>
-  <si>
-    <t>1.6 Define the project scope</t>
+    <t>1.1 Define team communication channels</t>
+  </si>
+  <si>
+    <t>1.2 Resource analysis and procurement</t>
+  </si>
+  <si>
+    <t>1.3 Evaluate current systems</t>
+  </si>
+  <si>
+    <t>1.4 Develop a project overview</t>
+  </si>
+  <si>
+    <t>1.5 Establishing project scope</t>
+  </si>
+  <si>
+    <t>1.6 Develop a work breakdown structure</t>
+  </si>
+  <si>
+    <t>1.7 Analyse the dataset</t>
+  </si>
+  <si>
+    <t>1.8 Develop a Gantt chart</t>
+  </si>
+  <si>
+    <t>1.9 Define the project scope</t>
   </si>
   <si>
     <t>Stage 2 - Design</t>
@@ -199,38 +208,89 @@
     <t>2.3 Develop software use cases</t>
   </si>
   <si>
-    <t>2.4 Define system components</t>
-  </si>
-  <si>
-    <t>2.5 Define related software design</t>
-  </si>
-  <si>
-    <t>2.6 Define early user interface design</t>
-  </si>
-  <si>
-    <t>2.7 Develop a wireframe</t>
-  </si>
-  <si>
-    <t>Stage 3 - Implementation</t>
-  </si>
-  <si>
-    <t>Develop a testing plan</t>
-  </si>
-  <si>
-    <t>Develop a testing report</t>
-  </si>
-  <si>
-    <t>Create a user manual</t>
-  </si>
-  <si>
-    <t>Create a finalized data analysis report</t>
+    <t>2.4 Develop software misuse cases</t>
+  </si>
+  <si>
+    <t>2.5 Define system components</t>
+  </si>
+  <si>
+    <t>2.6 Define related software design</t>
+  </si>
+  <si>
+    <t>2.7 Define early user interface design</t>
+  </si>
+  <si>
+    <t>2.8 Develop a wireframe</t>
+  </si>
+  <si>
+    <t>Stage 3 - Software Development</t>
+  </si>
+  <si>
+    <t>3.1 Software unit allocations</t>
+  </si>
+  <si>
+    <t>3.2 Software prototyping</t>
+  </si>
+  <si>
+    <t>3.3 Software design progress reports</t>
+  </si>
+  <si>
+    <t>3.4 Software unit coding</t>
+  </si>
+  <si>
+    <t>3.5 Software unit debugging</t>
+  </si>
+  <si>
+    <t>3.6 Software unit incorporation</t>
+  </si>
+  <si>
+    <t>3.7 Integrated software testing</t>
+  </si>
+  <si>
+    <t>3.8 Major software finalization and publishing</t>
+  </si>
+  <si>
+    <t>Stage 4 - Implementation</t>
+  </si>
+  <si>
+    <t>4.1 Integration testing</t>
+  </si>
+  <si>
+    <t>4.2 Staff training</t>
+  </si>
+  <si>
+    <t>4.3 GUI finalizations</t>
+  </si>
+  <si>
+    <t>4.4 Installation performance monitoring</t>
+  </si>
+  <si>
+    <t>4.5 Bug fixes</t>
+  </si>
+  <si>
+    <t>4.6 User support documentation</t>
+  </si>
+  <si>
+    <t>4.7 Software support documentation</t>
+  </si>
+  <si>
+    <t>Stage 5 - Closure</t>
+  </si>
+  <si>
+    <t>5.1 Project finalization report</t>
+  </si>
+  <si>
+    <t>5.2 Team discussions</t>
+  </si>
+  <si>
+    <t>5.3 Team dispersion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -333,6 +393,11 @@
     <font>
       <sz val="13"/>
       <color rgb="FF404040"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -522,7 +587,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -596,6 +661,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" applyAlignment="1">
@@ -659,7 +727,1024 @@
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="121">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1602,16 +2687,16 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO39"/>
+  <dimension ref="B1:BO44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B32" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="BD44" sqref="BD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="37.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="41.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.75" style="1" bestFit="1" customWidth="1"/>
@@ -1632,13 +2717,13 @@
       <c r="G1" s="13"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1646,37 +2731,37 @@
         <v>1</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="28"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="29"/>
       <c r="U2" s="18"/>
-      <c r="V2" s="30" t="s">
+      <c r="V2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="33"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="30" t="s">
+      <c r="AA2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="33"/>
       <c r="AH2" s="20"/>
       <c r="AI2" s="22" t="s">
         <v>7</v>
@@ -1690,22 +2775,22 @@
       <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="36" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1732,12 +2817,12 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1">
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1929,20 +3014,24 @@
       <c r="D5" s="7">
         <v>9</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>9</v>
+      </c>
       <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1">
       <c r="B6" s="24" t="s">
@@ -1954,12 +3043,16 @@
       <c r="D6" s="7">
         <v>2</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
       <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="18"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1">
@@ -1972,12 +3065,16 @@
       <c r="D7" s="7">
         <v>2</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
       <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="18"/>
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1">
@@ -1988,17 +3085,19 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>4</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
       <c r="G8" s="8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1">
       <c r="B9" s="24" t="s">
@@ -2008,48 +3107,42 @@
         <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>9</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
       <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1">
       <c r="B10" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7">
+        <v>3</v>
+      </c>
+      <c r="G10" s="8">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
-        <v>9</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="V10"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1">
       <c r="B11" s="24" t="s">
@@ -2059,20 +3152,27 @@
         <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>3</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="E11" s="7">
+        <v>4</v>
+      </c>
+      <c r="F11" s="7">
+        <v>5</v>
+      </c>
       <c r="G11" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="V11"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="7">
@@ -2081,20 +3181,25 @@
       <c r="D12" s="7">
         <v>9</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>9</v>
+      </c>
       <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="V12"/>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1">
       <c r="B13" s="24" t="s">
@@ -2104,58 +3209,85 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
+        <v>9</v>
+      </c>
+      <c r="E13" s="7">
         <v>2</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7">
+        <v>8</v>
+      </c>
       <c r="G13" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="20"/>
+      <c r="V13"/>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1">
       <c r="B14" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
         <v>2</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="E14" s="7">
+        <v>3</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
       <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="20"/>
+      <c r="V14"/>
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="9">
-        <v>4</v>
+      <c r="C15" s="7">
+        <v>10</v>
       </c>
       <c r="D15" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="8">
         <v>0</v>
       </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1">
       <c r="B16" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
         <v>2</v>
@@ -2165,15 +3297,15 @@
       <c r="G16" s="8">
         <v>0</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-    </row>
-    <row r="17" spans="2:29" ht="30" customHeight="1">
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+    </row>
+    <row r="17" spans="2:42" ht="30" customHeight="1">
       <c r="B17" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D17" s="7">
         <v>2</v>
@@ -2183,97 +3315,84 @@
       <c r="G17" s="8">
         <v>0</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-    </row>
-    <row r="18" spans="2:29" ht="30" customHeight="1">
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+    </row>
+    <row r="18" spans="2:42" ht="30" customHeight="1">
       <c r="B18" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="7">
-        <v>6</v>
+      <c r="C18" s="9">
+        <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="8">
         <v>0</v>
       </c>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-    </row>
-    <row r="19" spans="2:29" ht="30" customHeight="1">
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+    </row>
+    <row r="19" spans="2:42" ht="30" customHeight="1">
       <c r="B19" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="7">
-        <v>6</v>
+      <c r="C19" s="9">
+        <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="8">
         <v>0</v>
       </c>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-    </row>
-    <row r="20" spans="2:29" ht="30" customHeight="1">
-      <c r="B20" s="6" t="s">
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+    </row>
+    <row r="20" spans="2:42" ht="30" customHeight="1">
+      <c r="B20" s="24" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D20" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="8">
         <v>0</v>
       </c>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
       <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-    </row>
-    <row r="21" spans="2:29" ht="30" customHeight="1">
+    </row>
+    <row r="21" spans="2:42" ht="30" customHeight="1">
       <c r="B21" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D21" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="8">
         <v>0</v>
       </c>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
       <c r="T21" s="17"/>
-    </row>
-    <row r="22" spans="2:29" ht="30" customHeight="1">
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+    </row>
+    <row r="22" spans="2:42" ht="30" customHeight="1">
       <c r="B22" s="24" t="s">
         <v>32</v>
       </c>
@@ -2281,7 +3400,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -2290,13 +3409,14 @@
       </c>
       <c r="U22" s="17"/>
       <c r="V22" s="17"/>
-    </row>
-    <row r="23" spans="2:29" ht="30" customHeight="1">
+      <c r="W22" s="17"/>
+    </row>
+    <row r="23" spans="2:42" ht="30" customHeight="1">
       <c r="B23" s="24" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D23" s="7">
         <v>5</v>
@@ -2306,152 +3426,418 @@
       <c r="G23" s="8">
         <v>0</v>
       </c>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
       <c r="W23" s="17"/>
       <c r="X23" s="17"/>
       <c r="Y23" s="17"/>
-    </row>
-    <row r="24" spans="2:29" ht="30" customHeight="1">
-      <c r="B24" s="24" t="s">
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+    </row>
+    <row r="24" spans="2:42" ht="30" customHeight="1">
+      <c r="B24" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D24" s="7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="8">
         <v>0</v>
       </c>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
       <c r="AB24" s="17"/>
       <c r="AC24" s="17"/>
-    </row>
-    <row r="25" spans="2:29" ht="30" customHeight="1">
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="17"/>
+      <c r="AM24" s="17"/>
+      <c r="AN24" s="17"/>
+      <c r="AO24" s="17"/>
+      <c r="AP24" s="17"/>
+    </row>
+    <row r="25" spans="2:42" ht="30" customHeight="1">
+      <c r="B25" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="7">
+        <v>21</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2</v>
+      </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="2:29" ht="30" customHeight="1">
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+    </row>
+    <row r="26" spans="2:42" ht="30" customHeight="1">
+      <c r="B26" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="7">
+        <v>23</v>
+      </c>
+      <c r="D26" s="7">
+        <v>4</v>
+      </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="2:29" ht="30" customHeight="1">
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="G26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+    </row>
+    <row r="27" spans="2:42" ht="30" customHeight="1">
+      <c r="B27" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="7">
+        <v>22</v>
+      </c>
+      <c r="D27" s="7">
+        <v>2</v>
+      </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="2:29" ht="30" customHeight="1">
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="17"/>
+      <c r="AD27" s="17"/>
+    </row>
+    <row r="28" spans="2:42" ht="30" customHeight="1">
+      <c r="B28" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="7">
+        <v>22</v>
+      </c>
+      <c r="D28" s="7">
+        <v>10</v>
+      </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="2:29" ht="30" customHeight="1">
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="17"/>
+      <c r="AJ28" s="17"/>
+      <c r="AK28" s="17"/>
+      <c r="AL28" s="17"/>
+    </row>
+    <row r="29" spans="2:42" ht="30" customHeight="1">
+      <c r="B29" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="7">
+        <v>22</v>
+      </c>
+      <c r="D29" s="7">
+        <v>10</v>
+      </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="2:29" ht="30" customHeight="1">
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="17"/>
+      <c r="AF29" s="17"/>
+      <c r="AG29" s="17"/>
+      <c r="AH29" s="17"/>
+      <c r="AI29" s="17"/>
+      <c r="AJ29" s="17"/>
+      <c r="AK29" s="17"/>
+      <c r="AL29" s="17"/>
+    </row>
+    <row r="30" spans="2:42" ht="30" customHeight="1">
+      <c r="B30" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="7">
+        <v>31</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2</v>
+      </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="2:29" ht="30" customHeight="1">
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="AL30" s="17"/>
+      <c r="AM30" s="17"/>
+    </row>
+    <row r="31" spans="2:42" ht="30" customHeight="1">
+      <c r="B31" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="7">
+        <v>32</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3</v>
+      </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="2:29" ht="30" customHeight="1">
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="AM31" s="17"/>
+      <c r="AN31" s="17"/>
+      <c r="AO31" s="17"/>
+    </row>
+    <row r="32" spans="2:42" ht="30" customHeight="1">
+      <c r="B32" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="7">
+        <v>33</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1">
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="AO32" s="17"/>
+      <c r="AP32" s="17"/>
+    </row>
+    <row r="33" spans="2:56" ht="30" customHeight="1">
+      <c r="B33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="7">
+        <v>35</v>
+      </c>
+      <c r="D33" s="7">
+        <v>10</v>
+      </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="2:7" ht="30" customHeight="1">
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="AP33" s="17"/>
+      <c r="AQ33" s="17"/>
+      <c r="AR33" s="17"/>
+      <c r="AS33" s="17"/>
+      <c r="AT33" s="17"/>
+      <c r="AU33" s="17"/>
+      <c r="AV33" s="17"/>
+      <c r="AW33" s="17"/>
+      <c r="AX33" s="17"/>
+      <c r="AY33" s="17"/>
+    </row>
+    <row r="34" spans="2:56" ht="30" customHeight="1">
+      <c r="B34" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="7">
+        <v>35</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3</v>
+      </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="2:7" ht="30" customHeight="1">
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
+      <c r="AP34" s="17"/>
+      <c r="AQ34" s="17"/>
+      <c r="AR34" s="17"/>
+    </row>
+    <row r="35" spans="2:56" ht="30" customHeight="1">
+      <c r="B35" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="7">
+        <v>35</v>
+      </c>
+      <c r="D35" s="7">
+        <v>5</v>
+      </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="2:7" ht="30" customHeight="1">
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="AP35" s="17"/>
+      <c r="AQ35" s="17"/>
+      <c r="AR35" s="17"/>
+      <c r="AS35" s="17"/>
+      <c r="AT35" s="17"/>
+    </row>
+    <row r="36" spans="2:56" ht="30" customHeight="1">
+      <c r="B36" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="7">
+        <v>37</v>
+      </c>
+      <c r="D36" s="7">
+        <v>3</v>
+      </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="2:7" ht="30" customHeight="1">
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="AR36" s="17"/>
+      <c r="AS36" s="17"/>
+      <c r="AT36" s="17"/>
+    </row>
+    <row r="37" spans="2:56" ht="30" customHeight="1">
+      <c r="B37" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="7">
+        <v>38</v>
+      </c>
+      <c r="D37" s="7">
+        <v>2</v>
+      </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="8"/>
-    </row>
-    <row r="38" spans="2:7" ht="30" customHeight="1">
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="AS37" s="17"/>
+      <c r="AT37" s="17"/>
+    </row>
+    <row r="38" spans="2:56" ht="30" customHeight="1">
+      <c r="B38" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="7">
+        <v>40</v>
+      </c>
+      <c r="D38" s="7">
+        <v>3</v>
+      </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="2:7" ht="30" customHeight="1">
-      <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
+      <c r="AU38" s="17"/>
+      <c r="AV38" s="17"/>
+      <c r="AW38" s="17"/>
+    </row>
+    <row r="39" spans="2:56" ht="30" customHeight="1">
+      <c r="B39" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="7">
+        <v>42</v>
+      </c>
+      <c r="D39" s="7">
+        <v>2</v>
+      </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="8"/>
+      <c r="AW39" s="17"/>
+      <c r="AX39" s="17"/>
+    </row>
+    <row r="40" spans="2:56" ht="30" customHeight="1">
+      <c r="B40" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="7">
+        <v>43</v>
+      </c>
+      <c r="D40" s="7">
+        <v>2</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="8"/>
+      <c r="AX40" s="17"/>
+      <c r="AY40" s="17"/>
+    </row>
+    <row r="41" spans="2:56" ht="30" customHeight="1">
+      <c r="B41" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="7">
+        <v>45</v>
+      </c>
+      <c r="D41" s="7">
+        <v>50</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="8"/>
+      <c r="AZ41" s="17"/>
+      <c r="BA41" s="17"/>
+      <c r="BB41" s="17"/>
+      <c r="BC41" s="17"/>
+      <c r="BD41" s="17"/>
+    </row>
+    <row r="42" spans="2:56" ht="30" customHeight="1">
+      <c r="B42" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="7">
+        <v>45</v>
+      </c>
+      <c r="D42" s="7">
+        <v>2</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="8"/>
+      <c r="AZ42" s="17"/>
+      <c r="BA42" s="17"/>
+    </row>
+    <row r="43" spans="2:56" ht="30" customHeight="1">
+      <c r="B43" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="7">
+        <v>46</v>
+      </c>
+      <c r="D43" s="7">
+        <v>3</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="8"/>
+      <c r="BA43" s="17"/>
+      <c r="BB43" s="17"/>
+      <c r="BC43" s="17"/>
+    </row>
+    <row r="44" spans="2:56" ht="30" customHeight="1">
+      <c r="B44" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="7">
+        <v>49</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD44" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2467,90 +3853,324 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H25:BO39 K6:BO7 Q5:BO5 O8:BO8 H11 L11:BO11 Q12:BO12 J13:BO13 H14:J15 M14:BO15 H16:K17 N16:BO17 O18:BO18 H18:L19 Q19:BO19 Q9:BO10 AD20:BO20 H20:P21 U21:BO21 W22:BO22 H22:T23 H24:X24 Z23:BO23 AD24:BO24">
-    <cfRule type="expression" dxfId="48" priority="121">
+  <conditionalFormatting sqref="K6:BO9 Q5:BO5 O10:BO10 AB15:BO15 H17:J19 H22:L23 Q11:BO13 K14:BO14 O16:P16 J15:L16 H16:I16 K17:P17 S16:BO17 K18:R19 V18:BO19 U20:BO20 W21:BO21 X22:BO22 M22:T22 AB23:BO23 M23:V23 AQ24:BO24 H20:S21 H24:AA25 H40:AW40 AD25:BO25 H26:AC26 AH26:BO26 AE27:BO27 H27:AB29 H30:AK30 AM28:BO29 H31:AL31 AN30:BO30 H32:AN32 AP31:BO31 AQ32:BO32 AZ33:BO33 H44:BC44 BE41:BO41 AS34:BO34 H33:AO35 H36:AQ36 H37:AR37 AU35:BO37 H38:AT38 H39:AV39 AX38:BO38 AY39:BO39 AZ40:BO40 H41:AY42 H43:AZ43 BB42:BO42 BD43:BO43 BE44:BO44">
+    <cfRule type="expression" dxfId="120" priority="225">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="123">
+    <cfRule type="expression" dxfId="119" priority="227">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="124">
+    <cfRule type="expression" dxfId="118" priority="228">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="125">
+    <cfRule type="expression" dxfId="117" priority="229">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="126">
+    <cfRule type="expression" dxfId="116" priority="230">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="127">
+    <cfRule type="expression" dxfId="115" priority="231">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="131">
+    <cfRule type="expression" dxfId="114" priority="235">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="132">
+    <cfRule type="expression" dxfId="113" priority="236">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="expression" dxfId="40" priority="128">
+    <cfRule type="expression" dxfId="112" priority="232">
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="39" priority="113">
+  <conditionalFormatting sqref="J6:J8">
+    <cfRule type="expression" dxfId="111" priority="217">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="114">
+    <cfRule type="expression" dxfId="110" priority="218">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="115">
+    <cfRule type="expression" dxfId="109" priority="219">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="116">
+    <cfRule type="expression" dxfId="108" priority="220">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="117">
+    <cfRule type="expression" dxfId="107" priority="221">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="118">
+    <cfRule type="expression" dxfId="106" priority="222">
       <formula>J$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="119">
+    <cfRule type="expression" dxfId="105" priority="223">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="120">
+    <cfRule type="expression" dxfId="104" priority="224">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="31" priority="105">
+  <conditionalFormatting sqref="J9">
+    <cfRule type="expression" dxfId="103" priority="209">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="106">
+    <cfRule type="expression" dxfId="102" priority="210">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="107">
+    <cfRule type="expression" dxfId="101" priority="211">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="108">
+    <cfRule type="expression" dxfId="100" priority="212">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="109">
+    <cfRule type="expression" dxfId="99" priority="213">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="110">
+    <cfRule type="expression" dxfId="98" priority="214">
       <formula>J$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="111">
+    <cfRule type="expression" dxfId="97" priority="215">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="112">
+    <cfRule type="expression" dxfId="96" priority="216">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8">
+  <conditionalFormatting sqref="N10">
+    <cfRule type="expression" dxfId="95" priority="121">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="122">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="123">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="124">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="125">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="126">
+      <formula>N$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="127">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="128">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10">
+    <cfRule type="expression" dxfId="87" priority="113">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="114">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="115">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="116">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="117">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="118">
+      <formula>M$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="119">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="120">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10">
+    <cfRule type="expression" dxfId="79" priority="105">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="106">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="107">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="108">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="109">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="110">
+      <formula>L$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="111">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="112">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P11">
+    <cfRule type="expression" dxfId="71" priority="89">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="90">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="91">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="92">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="93">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="94">
+      <formula>P$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="95">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="96">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="expression" dxfId="63" priority="49">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="50">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="51">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="52">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="53">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="54">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="55">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="56">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="expression" dxfId="55" priority="41">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="42">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="43">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="44">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="45">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="46">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="47">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="48">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O15">
+    <cfRule type="expression" dxfId="47" priority="33">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="34">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="35">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="36">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="37">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="38">
+      <formula>O$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="39">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="40">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15:M16">
+    <cfRule type="expression" dxfId="39" priority="245">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="246">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="247">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="248">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="249">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="250">
+      <formula>N$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="251">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="252">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="31" priority="25">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="26">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="27">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="28">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="29">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="30">
+      <formula>I$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="31">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="32">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
     <cfRule type="expression" dxfId="23" priority="17">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -2567,7 +4187,7 @@
       <formula>Plan</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="22">
-      <formula>N$4=period_selected</formula>
+      <formula>H$4=period_selected</formula>
     </cfRule>
     <cfRule type="expression" dxfId="17" priority="23">
       <formula>MOD(COLUMN(),2)</formula>
@@ -2576,7 +4196,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8">
+  <conditionalFormatting sqref="N15">
     <cfRule type="expression" dxfId="15" priority="9">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -2593,7 +4213,7 @@
       <formula>Plan</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="14">
-      <formula>M$4=period_selected</formula>
+      <formula>N$4=period_selected</formula>
     </cfRule>
     <cfRule type="expression" dxfId="9" priority="15">
       <formula>MOD(COLUMN(),2)</formula>
@@ -2602,7 +4222,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8">
+  <conditionalFormatting sqref="P15">
     <cfRule type="expression" dxfId="7" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -2619,7 +4239,7 @@
       <formula>Plan</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="6">
-      <formula>L$4=period_selected</formula>
+      <formula>P$4=period_selected</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
       <formula>MOD(COLUMN(),2)</formula>
@@ -2634,10 +4254,10 @@
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2 H5:P5 H6:I7 I11:K11 H8:K10 H12:P12 H13:I13 K14:L15 L16:M17 M18:N18 M19:P19 L9:P10 Q20:AC20 Q21:T21 U22:V22 U23:Y23 Y24:AC24" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2 Q15:AA15 I6:I7 I11:J11 AB24:AP24 U22:W22 T21:V21 W23:AA23 T20 S18:U19 Q16:R17 I14 H13:H14 AB25:AC25 AD26:AG26 AC27:AD27 AC28:AL29 AL30:AM30 AM31:AO31 AO32:AP32 AP33:AY33 AZ41:BD41 AP34:AR34 AP35:AT35 AR36:AT36 AS37:AT37 AU38:AW38 AW39:AX39 AX40:AY40 AZ42:BA42 BA43:BC43 BD44" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2 H5:H9 I5:P5 I8:I10 J10:K10 K11:L11 H12 I12:O13 P12" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2 M11:O11 P13 J14" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
